--- a/Etudiants/Corentin/Classeur BDD.xlsx
+++ b/Etudiants/Corentin/Classeur BDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projet\Systeme_Escape_Game_13emePorte\Etudiants\Corentin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCAFCBA0-20F9-4882-8C18-09DB46783B58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F196DE3A-9EF5-4B9F-A703-9F8090F84D25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{D826E869-3803-4F50-9899-4F4F8DA0405A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="32">
   <si>
     <t>Nom des mécanismes</t>
   </si>
@@ -392,34 +392,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -429,16 +405,49 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -450,49 +459,40 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -500,6 +500,98 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="77">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -603,30 +695,14 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -677,46 +753,50 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -736,99 +816,19 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -929,23 +929,23 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1033,23 +1033,23 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1137,23 +1137,23 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1191,92 +1191,73 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1314,23 +1295,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1394,23 +1358,23 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1498,23 +1462,23 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1539,6 +1503,48 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1553,6 +1559,36 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1613,6 +1649,84 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <top style="thin">
           <color indexed="64"/>
@@ -1620,23 +1734,23 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1658,120 +1772,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -1788,106 +1788,106 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADD790A7-4ACE-4EC6-9D39-315C77D51CC1}" name="Tableau1" displayName="Tableau1" ref="A1:F10" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="75" tableBorderDxfId="76" totalsRowBorderDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADD790A7-4ACE-4EC6-9D39-315C77D51CC1}" name="Tableau1" displayName="Tableau1" ref="A1:F10" totalsRowShown="0" headerRowDxfId="76" headerRowBorderDxfId="75" tableBorderDxfId="74" totalsRowBorderDxfId="73">
   <autoFilter ref="A1:F10" xr:uid="{549DF33D-DE46-4E30-A0C7-C83E10CF386A}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{CC219949-6C32-43AD-8E47-7F871AE2FA91}" name="IDMécanisme" dataDxfId="73">
+    <tableColumn id="1" xr3:uid="{CC219949-6C32-43AD-8E47-7F871AE2FA91}" name="IDMécanisme" dataDxfId="72">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B65822BA-F20B-404F-814A-338976C72F7E}" name="Nom des mécanismes" dataDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{E46E9EF5-28E6-4313-8C69-D8ECB682A054}" name="Nombres de capteurs" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{D5747BD4-3956-4B8F-88E7-CF9B0A6B0E75}" name="Nombres d'actionneurs" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{F17CE91E-0ECA-44D8-A5E9-CD3977D8E326}" name="Etat (V/X)" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{9269BCC8-9B35-4E45-ACBE-55984959C40D}" name="Heure/Minutes/secondes" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{B65822BA-F20B-404F-814A-338976C72F7E}" name="Nom des mécanismes" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{E46E9EF5-28E6-4313-8C69-D8ECB682A054}" name="Nombres de capteurs" dataDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{D5747BD4-3956-4B8F-88E7-CF9B0A6B0E75}" name="Nombres d'actionneurs" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{F17CE91E-0ECA-44D8-A5E9-CD3977D8E326}" name="Etat (V/X)" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{9269BCC8-9B35-4E45-ACBE-55984959C40D}" name="Heure/Minutes/secondes" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{31EC3669-6670-451C-A8CE-55B709B3D5E8}" name="Tableau11" displayName="Tableau11" ref="N40:P45" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="11" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{31EC3669-6670-451C-A8CE-55B709B3D5E8}" name="Tableau11" displayName="Tableau11" ref="N40:P45" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="N40:P45" xr:uid="{12CA8993-8F8F-471E-8424-FA2971DFD598}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4EB3D2D5-34AE-4256-9F46-709CB9F0C104}" name="IDActionneur" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{4EB3D2D5-34AE-4256-9F46-709CB9F0C104}" name="IDActionneur" dataDxfId="9">
       <calculatedColumnFormula>N40+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EE6FAACA-C327-4AE0-8E6B-37F21DF3AA91}" name="Etat" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{E5C7CC4F-E0C3-4415-869A-EB9B07098223}" name="Heures/Minutes/secondes" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{EE6FAACA-C327-4AE0-8E6B-37F21DF3AA91}" name="Etat" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{E5C7CC4F-E0C3-4415-869A-EB9B07098223}" name="Heures/Minutes/secondes" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{892DC866-3CDA-4F0A-BAE2-B15D8264BD5C}" name="Tableau13" displayName="Tableau13" ref="I55:K57" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{892DC866-3CDA-4F0A-BAE2-B15D8264BD5C}" name="Tableau13" displayName="Tableau13" ref="I55:K57" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="I55:K57" xr:uid="{50658B6D-C8D0-4ACC-8045-FB40117D9046}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1EF8629F-7935-4ADA-935B-F6958DD0DDD7}" name="IDActionneur" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{CEED29EB-3E2E-4EEB-B016-324941317B20}" name="Etat" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{5D907C5E-2F9E-4A2B-B28F-CFB34E0754CD}" name="Heures/Minutes/secondes" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1EF8629F-7935-4ADA-935B-F6958DD0DDD7}" name="IDActionneur" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{CEED29EB-3E2E-4EEB-B016-324941317B20}" name="Etat" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{5D907C5E-2F9E-4A2B-B28F-CFB34E0754CD}" name="Heures/Minutes/secondes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{33610EE4-7213-454F-8C0C-75A8CE9BD36D}" name="Tableau2" displayName="Tableau2" ref="I1:K3" totalsRowShown="0" headerRowDxfId="63" headerRowBorderDxfId="67" tableBorderDxfId="68" totalsRowBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{33610EE4-7213-454F-8C0C-75A8CE9BD36D}" name="Tableau2" displayName="Tableau2" ref="I1:K3" totalsRowShown="0" headerRowDxfId="66" headerRowBorderDxfId="65" tableBorderDxfId="64" totalsRowBorderDxfId="63">
   <autoFilter ref="I1:K3" xr:uid="{A8F0CB01-A71C-45BB-93EE-6D6B300850A1}"/>
   <tableColumns count="3">
     <tableColumn id="2" xr3:uid="{AA1214EF-FF96-4C19-AB3F-6D5C7B02E5AA}" name="IDCapteur" dataDxfId="62">
       <calculatedColumnFormula>I1+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6CF7C353-51C6-41B7-9F15-FFD5045D7725}" name="Etat" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{0400F5F3-83B7-4C7A-B3AC-95B2ADE9B82D}" name="Heures/Minutes/secondes" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{6CF7C353-51C6-41B7-9F15-FFD5045D7725}" name="Etat" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{0400F5F3-83B7-4C7A-B3AC-95B2ADE9B82D}" name="Heures/Minutes/secondes" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A051C744-AAFD-458C-B38B-C89DE9633BB3}" name="Tableau24" displayName="Tableau24" ref="I12:K14" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="59" tableBorderDxfId="60" totalsRowBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A051C744-AAFD-458C-B38B-C89DE9633BB3}" name="Tableau24" displayName="Tableau24" ref="I12:K14" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58" tableBorderDxfId="57" totalsRowBorderDxfId="56">
   <autoFilter ref="I12:K14" xr:uid="{EF87BAFC-5369-47DF-95FC-5EA191B39BA9}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{4B199F54-A9F0-40A5-8583-C2738A4AC1CD}" name="IDCapteur" dataDxfId="57">
+    <tableColumn id="2" xr3:uid="{4B199F54-A9F0-40A5-8583-C2738A4AC1CD}" name="IDCapteur" dataDxfId="55">
       <calculatedColumnFormula>I12+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F69A2F31-EFFE-4EBA-9AEC-0885A404E698}" name="Etat" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{9676DBF4-A035-4665-9411-7C80C9650CD8}" name="Heures/Minutes/secondes" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{F69A2F31-EFFE-4EBA-9AEC-0885A404E698}" name="Etat" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{9676DBF4-A035-4665-9411-7C80C9650CD8}" name="Heures/Minutes/secondes" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D6D9E2CE-A986-4704-8E69-599F9E5E6086}" name="Tableau245" displayName="Tableau245" ref="N11:P19" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="52" tableBorderDxfId="53" totalsRowBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D6D9E2CE-A986-4704-8E69-599F9E5E6086}" name="Tableau245" displayName="Tableau245" ref="N11:P19" totalsRowShown="0" headerRowDxfId="52" headerRowBorderDxfId="51" tableBorderDxfId="50" totalsRowBorderDxfId="49">
   <autoFilter ref="N11:P19" xr:uid="{4CE93DB3-0CDE-4C54-BB78-9A92094874DA}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{2D03A2FA-BC8E-41C0-A492-F8EB1BD828A5}" name="IDCapteur" dataDxfId="50">
+    <tableColumn id="2" xr3:uid="{2D03A2FA-BC8E-41C0-A492-F8EB1BD828A5}" name="IDCapteur" dataDxfId="48">
       <calculatedColumnFormula>L12+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C18CB65C-A6F4-4509-9F90-11C375714768}" name="Etat" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{98DD88C7-BDDD-4C4A-8A4D-B6DADD009DE0}" name="Heures/Minutes/secondes" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{C18CB65C-A6F4-4509-9F90-11C375714768}" name="Etat" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{98DD88C7-BDDD-4C4A-8A4D-B6DADD009DE0}" name="Heures/Minutes/secondes" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8A2DEBA0-42FD-4152-89AC-9F54F88CC750}" name="Tableau5" displayName="Tableau5" ref="I24:K29" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8A2DEBA0-42FD-4152-89AC-9F54F88CC750}" name="Tableau5" displayName="Tableau5" ref="I24:K29" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43">
   <autoFilter ref="I24:K29" xr:uid="{F108B76C-6155-4B7F-B795-0DDC50DF48B4}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{38FBDF59-FA53-4078-B8B4-3ACD36339D69}" name="IDCapteur" dataDxfId="44">
+    <tableColumn id="1" xr3:uid="{38FBDF59-FA53-4078-B8B4-3ACD36339D69}" name="IDCapteur" dataDxfId="42">
       <calculatedColumnFormula>I24+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E9042963-B9A3-475C-8F9A-FC6E52C84F02}" name="Etat" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{989925AB-0F58-4919-BA3B-6662593C10B7}" name="Heures/Minutes/secondes" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{E9042963-B9A3-475C-8F9A-FC6E52C84F02}" name="Etat" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{989925AB-0F58-4919-BA3B-6662593C10B7}" name="Heures/Minutes/secondes" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{39B1DB64-1262-46C2-9749-8114B7A2A506}" name="Tableau27" displayName="Tableau27" ref="I36:K37" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="37" tableBorderDxfId="38" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{39B1DB64-1262-46C2-9749-8114B7A2A506}" name="Tableau27" displayName="Tableau27" ref="I36:K37" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <autoFilter ref="I36:K37" xr:uid="{13486F5B-C5D8-4FCF-8A44-D60E2878C150}"/>
   <tableColumns count="3">
     <tableColumn id="2" xr3:uid="{C0B36F8D-828E-4DB1-B08D-C1A9520E8149}" name="IDActionneur" dataDxfId="35">
@@ -1901,7 +1901,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3EA258BE-A69E-41CE-91A6-4DB5355D1565}" name="Tableau248" displayName="Tableau248" ref="I45:K49" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="30" tableBorderDxfId="31" totalsRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3EA258BE-A69E-41CE-91A6-4DB5355D1565}" name="Tableau248" displayName="Tableau248" ref="I45:K49" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <autoFilter ref="I45:K49" xr:uid="{AF519732-AC3F-43BD-B004-EEA93FA78C36}"/>
   <tableColumns count="3">
     <tableColumn id="2" xr3:uid="{9F10B9E8-514F-4106-9145-DDB97500D3BB}" name="IDActionneur" dataDxfId="28"/>
@@ -1913,7 +1913,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{028C41FD-20D0-4100-87FB-A7BA25603EFC}" name="Tableau2459" displayName="Tableau2459" ref="N49:P53" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="23" tableBorderDxfId="24" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{028C41FD-20D0-4100-87FB-A7BA25603EFC}" name="Tableau2459" displayName="Tableau2459" ref="N49:P53" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="N49:P53" xr:uid="{B3E41CA1-8F5C-4710-8A97-EF4FB2ECE250}"/>
   <tableColumns count="3">
     <tableColumn id="2" xr3:uid="{16DA30B7-EB35-4695-83BF-3C18CF4C6FC3}" name="IDActionneur" dataDxfId="21">
@@ -1927,7 +1927,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{46499D46-8DA6-4567-AF4C-D3358C38DD67}" name="Tableau510" displayName="Tableau510" ref="N55:P57" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="16" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{46499D46-8DA6-4567-AF4C-D3358C38DD67}" name="Tableau510" displayName="Tableau510" ref="N55:P57" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="N55:P57" xr:uid="{5A1AD403-49D5-4F93-80B5-676AF5B7D965}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D3F70D89-C227-4D62-A2BE-3364C9C68D5B}" name="IDActionneur" dataDxfId="15"/>
@@ -2237,8 +2237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3A0E11-E06E-4C37-9C5B-B964FAEC5C69}">
   <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22:P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2285,8 +2285,8 @@
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="24" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -2298,16 +2298,16 @@
       <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2326,8 +2326,8 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="30"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="4">
         <v>1</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="6"/>
-      <c r="M2" s="12"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="11">
         <v>1</v>
       </c>
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="31"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="7">
         <f>I2+1</f>
         <v>2</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="9"/>
-      <c r="U3" s="26"/>
+      <c r="U3" s="18"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -2385,8 +2385,8 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="34"/>
-      <c r="U4" s="25"/>
+      <c r="G4" s="37"/>
+      <c r="U4" s="17"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="34"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -2422,29 +2422,29 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="29" t="s">
+      <c r="G6" s="37"/>
+      <c r="H6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2464,8 +2464,8 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="31"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="11">
         <v>1</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>15</v>
       </c>
       <c r="K7" s="10"/>
-      <c r="M7" s="12"/>
+      <c r="M7" s="32"/>
       <c r="N7" s="11">
         <v>1</v>
       </c>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="34"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="34"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -2534,11 +2534,11 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="34"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G11" s="34"/>
-      <c r="M11" s="13" t="s">
+      <c r="G11" s="37"/>
+      <c r="M11" s="31" t="s">
         <v>22</v>
       </c>
       <c r="N11" s="1" t="s">
@@ -2552,14 +2552,14 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="29" t="s">
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="24" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -2571,7 +2571,7 @@
       <c r="K12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="18"/>
+      <c r="M12" s="34"/>
       <c r="N12" s="4">
         <v>1</v>
       </c>
@@ -2581,12 +2581,12 @@
       <c r="P12" s="6"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="30"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="4">
         <v>1</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>15</v>
       </c>
       <c r="K13" s="6"/>
-      <c r="M13" s="18"/>
+      <c r="M13" s="34"/>
       <c r="N13" s="7">
         <f>N12+1</f>
         <v>2</v>
@@ -2603,14 +2603,14 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G14" s="34"/>
-      <c r="H14" s="31"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="7">
         <v>2</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="9"/>
-      <c r="M14" s="18"/>
+      <c r="M14" s="34"/>
       <c r="N14" s="7">
         <f t="shared" ref="N14:N19" si="1">N13+1</f>
         <v>3</v>
@@ -2619,8 +2619,8 @@
       <c r="P14" s="6"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G15" s="34"/>
-      <c r="M15" s="18"/>
+      <c r="G15" s="37"/>
+      <c r="M15" s="34"/>
       <c r="N15" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2629,42 +2629,42 @@
       <c r="P15" s="6"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G16" s="34"/>
-      <c r="M16" s="18"/>
+      <c r="G16" s="37"/>
+      <c r="M16" s="34"/>
       <c r="N16" s="7">
         <f>N15+1</f>
         <v>5</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="6"/>
-      <c r="Z16" s="24"/>
+      <c r="Z16" s="16"/>
     </row>
     <row r="17" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G17" s="34"/>
-      <c r="H17" s="29" t="s">
+      <c r="G17" s="37"/>
+      <c r="H17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M17" s="18"/>
+      <c r="M17" s="34"/>
       <c r="N17" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="6"/>
-      <c r="Z17" s="24"/>
+      <c r="Z17" s="16"/>
     </row>
     <row r="18" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G18" s="34"/>
-      <c r="H18" s="31"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="11">
         <v>1</v>
       </c>
@@ -2672,18 +2672,18 @@
         <v>15</v>
       </c>
       <c r="K18" s="10"/>
-      <c r="M18" s="18"/>
+      <c r="M18" s="34"/>
       <c r="N18" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="6"/>
-      <c r="Z18" s="24"/>
+      <c r="Z18" s="16"/>
     </row>
     <row r="19" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G19" s="34"/>
-      <c r="M19" s="19"/>
+      <c r="G19" s="37"/>
+      <c r="M19" s="35"/>
       <c r="N19" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2692,26 +2692,26 @@
       <c r="P19" s="6"/>
     </row>
     <row r="20" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G20" s="34"/>
+      <c r="G20" s="37"/>
     </row>
     <row r="21" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G21" s="34"/>
-      <c r="H21" s="29" t="s">
+      <c r="G21" s="37"/>
+      <c r="H21" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G22" s="34"/>
-      <c r="H22" s="31"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="11">
         <v>1</v>
       </c>
@@ -2719,39 +2719,39 @@
         <v>15</v>
       </c>
       <c r="K22" s="10"/>
-      <c r="N22" s="42" t="s">
+      <c r="N22" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="O22" s="43"/>
-      <c r="P22" s="44"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="41"/>
     </row>
     <row r="23" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G23" s="34"/>
+      <c r="G23" s="37"/>
       <c r="N23" s="48"/>
       <c r="O23" s="49"/>
       <c r="P23" s="50"/>
     </row>
     <row r="24" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G24" s="34"/>
-      <c r="H24" s="15" t="s">
+      <c r="G24" s="37"/>
+      <c r="H24" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="21" t="s">
+      <c r="J24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K24" s="21" t="s">
+      <c r="K24" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N24" s="45"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="47"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="44"/>
     </row>
     <row r="25" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G25" s="34"/>
-      <c r="H25" s="16"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="29"/>
       <c r="I25" s="10">
         <v>1</v>
       </c>
@@ -2761,8 +2761,8 @@
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G26" s="34"/>
-      <c r="H26" s="16"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="29"/>
       <c r="I26" s="5">
         <f>I25+1</f>
         <v>2</v>
@@ -2771,75 +2771,75 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G27" s="34"/>
-      <c r="H27" s="16"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="29"/>
       <c r="I27" s="5">
         <f t="shared" ref="I27:I29" si="2">I26+1</f>
         <v>3</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="U27" s="24"/>
+      <c r="U27" s="16"/>
     </row>
     <row r="28" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G28" s="34"/>
-      <c r="H28" s="16"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="29"/>
       <c r="I28" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="U28" s="24"/>
+      <c r="U28" s="16"/>
     </row>
     <row r="29" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G29" s="34"/>
-      <c r="H29" s="23"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="30"/>
       <c r="I29" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="U29" s="24"/>
+      <c r="U29" s="16"/>
     </row>
     <row r="30" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G30" s="34"/>
+      <c r="G30" s="37"/>
     </row>
     <row r="31" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G31" s="34"/>
+      <c r="G31" s="37"/>
     </row>
     <row r="32" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G32" s="34"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="38"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="23"/>
     </row>
     <row r="33" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G33" s="34"/>
+      <c r="G33" s="37"/>
     </row>
     <row r="34" spans="7:16" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="G34" s="34"/>
-      <c r="K34" s="39" t="s">
+      <c r="G34" s="37"/>
+      <c r="K34" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="41"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="47"/>
     </row>
     <row r="35" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G35" s="34"/>
+      <c r="G35" s="37"/>
     </row>
     <row r="36" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G36" s="34"/>
-      <c r="H36" s="32" t="s">
+      <c r="G36" s="37"/>
+      <c r="H36" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -2851,22 +2851,22 @@
       <c r="K36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M36" s="13" t="s">
+      <c r="M36" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="N36" s="17" t="s">
+      <c r="N36" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="O36" s="14" t="s">
+      <c r="O36" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P36" s="14" t="s">
+      <c r="P36" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G37" s="34"/>
-      <c r="H37" s="32"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="26"/>
       <c r="I37" s="4">
         <v>1</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>15</v>
       </c>
       <c r="K37" s="6"/>
-      <c r="M37" s="12"/>
+      <c r="M37" s="32"/>
       <c r="N37" s="11">
         <v>1</v>
       </c>
@@ -2884,41 +2884,41 @@
       <c r="P37" s="10"/>
     </row>
     <row r="38" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G38" s="34"/>
+      <c r="G38" s="37"/>
     </row>
     <row r="39" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G39" s="34"/>
+      <c r="G39" s="37"/>
     </row>
     <row r="40" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G40" s="34"/>
-      <c r="H40" s="32" t="s">
+      <c r="G40" s="37"/>
+      <c r="H40" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="17" t="s">
+      <c r="I40" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J40" s="14" t="s">
+      <c r="J40" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="14" t="s">
+      <c r="K40" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M40" s="22" t="s">
+      <c r="M40" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N40" s="14" t="s">
+      <c r="N40" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O40" s="14" t="s">
+      <c r="O40" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P40" s="14" t="s">
+      <c r="P40" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G41" s="34"/>
-      <c r="H41" s="32"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="26"/>
       <c r="I41" s="11">
         <v>1</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>15</v>
       </c>
       <c r="K41" s="10"/>
-      <c r="M41" s="22"/>
+      <c r="M41" s="27"/>
       <c r="N41" s="10">
         <v>1</v>
       </c>
@@ -2936,14 +2936,14 @@
       <c r="P41" s="10"/>
     </row>
     <row r="42" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G42" s="34"/>
-      <c r="H42" s="32"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="26"/>
       <c r="I42" s="4">
         <v>2</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="M42" s="22"/>
+      <c r="M42" s="27"/>
       <c r="N42" s="5">
         <f>N41+1</f>
         <v>2</v>
@@ -2952,8 +2952,8 @@
       <c r="P42" s="5"/>
     </row>
     <row r="43" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G43" s="34"/>
-      <c r="M43" s="22"/>
+      <c r="G43" s="37"/>
+      <c r="M43" s="27"/>
       <c r="N43" s="5">
         <f t="shared" ref="N43:N45" si="3">N42+1</f>
         <v>3</v>
@@ -2962,8 +2962,8 @@
       <c r="P43" s="5"/>
     </row>
     <row r="44" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G44" s="34"/>
-      <c r="M44" s="22"/>
+      <c r="G44" s="37"/>
+      <c r="M44" s="27"/>
       <c r="N44" s="5">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -2972,8 +2972,8 @@
       <c r="P44" s="5"/>
     </row>
     <row r="45" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G45" s="34"/>
-      <c r="H45" s="32" t="s">
+      <c r="G45" s="37"/>
+      <c r="H45" s="26" t="s">
         <v>19</v>
       </c>
       <c r="I45" s="1" t="s">
@@ -2985,7 +2985,7 @@
       <c r="K45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M45" s="22"/>
+      <c r="M45" s="27"/>
       <c r="N45" s="5">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -2994,8 +2994,8 @@
       <c r="P45" s="5"/>
     </row>
     <row r="46" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G46" s="34"/>
-      <c r="H46" s="32"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="26"/>
       <c r="I46" s="4">
         <v>1</v>
       </c>
@@ -3005,8 +3005,8 @@
       <c r="K46" s="6"/>
     </row>
     <row r="47" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G47" s="34"/>
-      <c r="H47" s="32"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="26"/>
       <c r="I47" s="7">
         <v>2</v>
       </c>
@@ -3014,8 +3014,8 @@
       <c r="K47" s="9"/>
     </row>
     <row r="48" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G48" s="34"/>
-      <c r="H48" s="32"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="26"/>
       <c r="I48" s="7">
         <v>3</v>
       </c>
@@ -3023,14 +3023,14 @@
       <c r="K48" s="9"/>
     </row>
     <row r="49" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G49" s="34"/>
-      <c r="H49" s="32"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="26"/>
       <c r="I49" s="7">
         <v>4</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="9"/>
-      <c r="M49" s="22" t="s">
+      <c r="M49" s="27" t="s">
         <v>22</v>
       </c>
       <c r="N49" s="1" t="s">
@@ -3044,8 +3044,8 @@
       </c>
     </row>
     <row r="50" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G50" s="34"/>
-      <c r="M50" s="22"/>
+      <c r="G50" s="37"/>
+      <c r="M50" s="27"/>
       <c r="N50" s="4">
         <v>1</v>
       </c>
@@ -3055,20 +3055,20 @@
       <c r="P50" s="6"/>
     </row>
     <row r="51" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G51" s="34"/>
-      <c r="H51" s="29" t="s">
+      <c r="G51" s="37"/>
+      <c r="H51" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I51" s="17" t="s">
+      <c r="I51" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J51" s="14" t="s">
+      <c r="J51" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K51" s="14" t="s">
+      <c r="K51" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M51" s="22"/>
+      <c r="M51" s="27"/>
       <c r="N51" s="7">
         <f>N50+1</f>
         <v>2</v>
@@ -3077,8 +3077,8 @@
       <c r="P51" s="9"/>
     </row>
     <row r="52" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G52" s="34"/>
-      <c r="H52" s="31"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="25"/>
       <c r="I52" s="11">
         <v>1</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>15</v>
       </c>
       <c r="K52" s="10"/>
-      <c r="M52" s="22"/>
+      <c r="M52" s="27"/>
       <c r="N52" s="7">
         <f t="shared" ref="N52:N53" si="4">N51+1</f>
         <v>3</v>
@@ -3095,8 +3095,8 @@
       <c r="P52" s="6"/>
     </row>
     <row r="53" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G53" s="34"/>
-      <c r="M53" s="22"/>
+      <c r="G53" s="37"/>
+      <c r="M53" s="27"/>
       <c r="N53" s="7">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -3105,46 +3105,46 @@
       <c r="P53" s="6"/>
     </row>
     <row r="54" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G54" s="34"/>
+      <c r="G54" s="37"/>
     </row>
     <row r="55" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G55" s="34"/>
-      <c r="H55" s="32" t="s">
+      <c r="G55" s="37"/>
+      <c r="H55" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I55" s="20" t="s">
+      <c r="I55" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J55" s="21" t="s">
+      <c r="J55" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K55" s="27" t="s">
+      <c r="K55" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M55" s="22" t="s">
+      <c r="M55" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="N55" s="20" t="s">
+      <c r="N55" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="O55" s="21" t="s">
+      <c r="O55" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="P55" s="21" t="s">
+      <c r="P55" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G56" s="34"/>
-      <c r="H56" s="32"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="26"/>
       <c r="I56" s="11">
         <v>1</v>
       </c>
       <c r="J56" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K56" s="28"/>
-      <c r="M56" s="22"/>
+      <c r="K56" s="20"/>
+      <c r="M56" s="27"/>
       <c r="N56" s="11">
         <v>1</v>
       </c>
@@ -3154,14 +3154,14 @@
       <c r="P56" s="10"/>
     </row>
     <row r="57" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G57" s="34"/>
-      <c r="H57" s="32"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="26"/>
       <c r="I57" s="7">
         <v>2</v>
       </c>
       <c r="J57" s="8"/>
       <c r="K57" s="9"/>
-      <c r="M57" s="22"/>
+      <c r="M57" s="27"/>
       <c r="N57" s="4">
         <f>N56+1</f>
         <v>2</v>
@@ -3170,10 +3170,24 @@
       <c r="P57" s="5"/>
     </row>
     <row r="58" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G58" s="35"/>
+      <c r="G58" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M11:M19"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="M55:M57"/>
+    <mergeCell ref="M40:M45"/>
+    <mergeCell ref="H45:H49"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H24:H29"/>
+    <mergeCell ref="M36:M37"/>
     <mergeCell ref="H32:Q32"/>
     <mergeCell ref="K34:N34"/>
     <mergeCell ref="N22:P24"/>
@@ -3182,20 +3196,6 @@
     <mergeCell ref="H36:H37"/>
     <mergeCell ref="H40:H42"/>
     <mergeCell ref="M49:M53"/>
-    <mergeCell ref="M55:M57"/>
-    <mergeCell ref="M40:M45"/>
-    <mergeCell ref="H45:H49"/>
-    <mergeCell ref="H55:H57"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H24:H29"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M11:M19"/>
-    <mergeCell ref="H17:H18"/>
     <mergeCell ref="G1:G58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Etudiants/Corentin/Classeur BDD.xlsx
+++ b/Etudiants/Corentin/Classeur BDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projet\Systeme_Escape_Game_13emePorte\Etudiants\Corentin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F196DE3A-9EF5-4B9F-A703-9F8090F84D25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29E387B-CB5B-4C69-A024-60C553BA1CAA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{D826E869-3803-4F50-9899-4F4F8DA0405A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="32">
   <si>
     <t>Nom des mécanismes</t>
   </si>
@@ -405,25 +405,31 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -435,28 +441,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -468,6 +468,15 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -477,23 +486,14 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2237,7 +2237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3A0E11-E06E-4C37-9C5B-B964FAEC5C69}">
   <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N22" sqref="N22:P24"/>
     </sheetView>
   </sheetViews>
@@ -2285,8 +2285,8 @@
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="24" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="21" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -2298,7 +2298,7 @@
       <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="24" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="13" t="s">
@@ -2326,8 +2326,8 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="33"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="4">
         <v>1</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="6"/>
-      <c r="M2" s="32"/>
+      <c r="M2" s="25"/>
       <c r="N2" s="11">
         <v>1</v>
       </c>
@@ -2359,8 +2359,8 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="25"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="7">
         <f>I2+1</f>
         <v>2</v>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="37"/>
+      <c r="G4" s="49"/>
       <c r="U4" s="17"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="37"/>
+      <c r="G5" s="49"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -2422,8 +2422,8 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="24" t="s">
+      <c r="G6" s="49"/>
+      <c r="H6" s="21" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="13" t="s">
@@ -2435,7 +2435,7 @@
       <c r="K6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="24" t="s">
         <v>21</v>
       </c>
       <c r="N6" s="13" t="s">
@@ -2464,8 +2464,8 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="25"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="11">
         <v>1</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>15</v>
       </c>
       <c r="K7" s="10"/>
-      <c r="M7" s="32"/>
+      <c r="M7" s="25"/>
       <c r="N7" s="11">
         <v>1</v>
       </c>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="37"/>
+      <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="37"/>
+      <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -2534,11 +2534,11 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="37"/>
+      <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G11" s="37"/>
-      <c r="M11" s="31" t="s">
+      <c r="G11" s="49"/>
+      <c r="M11" s="24" t="s">
         <v>22</v>
       </c>
       <c r="N11" s="1" t="s">
@@ -2558,8 +2558,8 @@
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="41"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="24" t="s">
+      <c r="G12" s="49"/>
+      <c r="H12" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -2571,7 +2571,7 @@
       <c r="K12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="34"/>
+      <c r="M12" s="26"/>
       <c r="N12" s="4">
         <v>1</v>
       </c>
@@ -2581,12 +2581,12 @@
       <c r="P12" s="6"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="33"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="4">
         <v>1</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>15</v>
       </c>
       <c r="K13" s="6"/>
-      <c r="M13" s="34"/>
+      <c r="M13" s="26"/>
       <c r="N13" s="7">
         <f>N12+1</f>
         <v>2</v>
@@ -2603,14 +2603,14 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G14" s="37"/>
-      <c r="H14" s="25"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="7">
         <v>2</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="9"/>
-      <c r="M14" s="34"/>
+      <c r="M14" s="26"/>
       <c r="N14" s="7">
         <f t="shared" ref="N14:N19" si="1">N13+1</f>
         <v>3</v>
@@ -2619,8 +2619,8 @@
       <c r="P14" s="6"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G15" s="37"/>
-      <c r="M15" s="34"/>
+      <c r="G15" s="49"/>
+      <c r="M15" s="26"/>
       <c r="N15" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2629,8 +2629,8 @@
       <c r="P15" s="6"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G16" s="37"/>
-      <c r="M16" s="34"/>
+      <c r="G16" s="49"/>
+      <c r="M16" s="26"/>
       <c r="N16" s="7">
         <f>N15+1</f>
         <v>5</v>
@@ -2640,8 +2640,8 @@
       <c r="Z16" s="16"/>
     </row>
     <row r="17" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G17" s="37"/>
-      <c r="H17" s="24" t="s">
+      <c r="G17" s="49"/>
+      <c r="H17" s="21" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="13" t="s">
@@ -2653,7 +2653,7 @@
       <c r="K17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M17" s="34"/>
+      <c r="M17" s="26"/>
       <c r="N17" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2663,8 +2663,8 @@
       <c r="Z17" s="16"/>
     </row>
     <row r="18" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G18" s="37"/>
-      <c r="H18" s="25"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="11">
         <v>1</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>15</v>
       </c>
       <c r="K18" s="10"/>
-      <c r="M18" s="34"/>
+      <c r="M18" s="26"/>
       <c r="N18" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2682,8 +2682,8 @@
       <c r="Z18" s="16"/>
     </row>
     <row r="19" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G19" s="37"/>
-      <c r="M19" s="35"/>
+      <c r="G19" s="49"/>
+      <c r="M19" s="27"/>
       <c r="N19" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2692,11 +2692,11 @@
       <c r="P19" s="6"/>
     </row>
     <row r="20" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G20" s="37"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G21" s="37"/>
-      <c r="H21" s="24" t="s">
+      <c r="G21" s="49"/>
+      <c r="H21" s="21" t="s">
         <v>24</v>
       </c>
       <c r="I21" s="13" t="s">
@@ -2710,8 +2710,8 @@
       </c>
     </row>
     <row r="22" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G22" s="37"/>
-      <c r="H22" s="25"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="23"/>
       <c r="I22" s="11">
         <v>1</v>
       </c>
@@ -2726,14 +2726,14 @@
       <c r="P22" s="41"/>
     </row>
     <row r="23" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G23" s="37"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="50"/>
+      <c r="G23" s="49"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="44"/>
     </row>
     <row r="24" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G24" s="37"/>
-      <c r="H24" s="28" t="s">
+      <c r="G24" s="49"/>
+      <c r="H24" s="30" t="s">
         <v>27</v>
       </c>
       <c r="I24" s="14" t="s">
@@ -2745,13 +2745,13 @@
       <c r="K24" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="44"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="47"/>
     </row>
     <row r="25" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G25" s="37"/>
-      <c r="H25" s="29"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="31"/>
       <c r="I25" s="10">
         <v>1</v>
       </c>
@@ -2761,8 +2761,8 @@
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G26" s="37"/>
-      <c r="H26" s="29"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="31"/>
       <c r="I26" s="5">
         <f>I25+1</f>
         <v>2</v>
@@ -2771,8 +2771,8 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G27" s="37"/>
-      <c r="H27" s="29"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="5">
         <f t="shared" ref="I27:I29" si="2">I26+1</f>
         <v>3</v>
@@ -2782,8 +2782,8 @@
       <c r="U27" s="16"/>
     </row>
     <row r="28" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G28" s="37"/>
-      <c r="H28" s="29"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="31"/>
       <c r="I28" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -2793,8 +2793,8 @@
       <c r="U28" s="16"/>
     </row>
     <row r="29" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G29" s="37"/>
-      <c r="H29" s="30"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="32"/>
       <c r="I29" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -2804,42 +2804,42 @@
       <c r="U29" s="16"/>
     </row>
     <row r="30" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G30" s="37"/>
+      <c r="G30" s="49"/>
     </row>
     <row r="31" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G31" s="37"/>
+      <c r="G31" s="49"/>
     </row>
     <row r="32" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G32" s="37"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="23"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="35"/>
     </row>
     <row r="33" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G33" s="37"/>
+      <c r="G33" s="49"/>
     </row>
     <row r="34" spans="7:16" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="G34" s="37"/>
-      <c r="K34" s="45" t="s">
+      <c r="G34" s="49"/>
+      <c r="K34" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="47"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="38"/>
     </row>
     <row r="35" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G35" s="37"/>
+      <c r="G35" s="49"/>
     </row>
     <row r="36" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G36" s="37"/>
-      <c r="H36" s="26" t="s">
+      <c r="G36" s="49"/>
+      <c r="H36" s="29" t="s">
         <v>17</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -2851,7 +2851,7 @@
       <c r="K36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M36" s="31" t="s">
+      <c r="M36" s="24" t="s">
         <v>18</v>
       </c>
       <c r="N36" s="13" t="s">
@@ -2865,8 +2865,8 @@
       </c>
     </row>
     <row r="37" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G37" s="37"/>
-      <c r="H37" s="26"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="29"/>
       <c r="I37" s="4">
         <v>1</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>15</v>
       </c>
       <c r="K37" s="6"/>
-      <c r="M37" s="32"/>
+      <c r="M37" s="25"/>
       <c r="N37" s="11">
         <v>1</v>
       </c>
@@ -2884,14 +2884,14 @@
       <c r="P37" s="10"/>
     </row>
     <row r="38" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G38" s="37"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G39" s="37"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G40" s="37"/>
-      <c r="H40" s="26" t="s">
+      <c r="G40" s="49"/>
+      <c r="H40" s="29" t="s">
         <v>20</v>
       </c>
       <c r="I40" s="13" t="s">
@@ -2903,7 +2903,7 @@
       <c r="K40" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M40" s="27" t="s">
+      <c r="M40" s="28" t="s">
         <v>21</v>
       </c>
       <c r="N40" s="12" t="s">
@@ -2917,8 +2917,8 @@
       </c>
     </row>
     <row r="41" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G41" s="37"/>
-      <c r="H41" s="26"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="29"/>
       <c r="I41" s="11">
         <v>1</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>15</v>
       </c>
       <c r="K41" s="10"/>
-      <c r="M41" s="27"/>
+      <c r="M41" s="28"/>
       <c r="N41" s="10">
         <v>1</v>
       </c>
@@ -2936,14 +2936,14 @@
       <c r="P41" s="10"/>
     </row>
     <row r="42" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G42" s="37"/>
-      <c r="H42" s="26"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="29"/>
       <c r="I42" s="4">
         <v>2</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="M42" s="27"/>
+      <c r="M42" s="28"/>
       <c r="N42" s="5">
         <f>N41+1</f>
         <v>2</v>
@@ -2952,8 +2952,8 @@
       <c r="P42" s="5"/>
     </row>
     <row r="43" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G43" s="37"/>
-      <c r="M43" s="27"/>
+      <c r="G43" s="49"/>
+      <c r="M43" s="28"/>
       <c r="N43" s="5">
         <f t="shared" ref="N43:N45" si="3">N42+1</f>
         <v>3</v>
@@ -2962,8 +2962,8 @@
       <c r="P43" s="5"/>
     </row>
     <row r="44" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G44" s="37"/>
-      <c r="M44" s="27"/>
+      <c r="G44" s="49"/>
+      <c r="M44" s="28"/>
       <c r="N44" s="5">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -2972,8 +2972,8 @@
       <c r="P44" s="5"/>
     </row>
     <row r="45" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G45" s="37"/>
-      <c r="H45" s="26" t="s">
+      <c r="G45" s="49"/>
+      <c r="H45" s="29" t="s">
         <v>19</v>
       </c>
       <c r="I45" s="1" t="s">
@@ -2985,7 +2985,7 @@
       <c r="K45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M45" s="27"/>
+      <c r="M45" s="28"/>
       <c r="N45" s="5">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -2994,8 +2994,8 @@
       <c r="P45" s="5"/>
     </row>
     <row r="46" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G46" s="37"/>
-      <c r="H46" s="26"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="29"/>
       <c r="I46" s="4">
         <v>1</v>
       </c>
@@ -3005,8 +3005,8 @@
       <c r="K46" s="6"/>
     </row>
     <row r="47" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G47" s="37"/>
-      <c r="H47" s="26"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="29"/>
       <c r="I47" s="7">
         <v>2</v>
       </c>
@@ -3014,8 +3014,8 @@
       <c r="K47" s="9"/>
     </row>
     <row r="48" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G48" s="37"/>
-      <c r="H48" s="26"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="29"/>
       <c r="I48" s="7">
         <v>3</v>
       </c>
@@ -3023,14 +3023,14 @@
       <c r="K48" s="9"/>
     </row>
     <row r="49" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G49" s="37"/>
-      <c r="H49" s="26"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="29"/>
       <c r="I49" s="7">
         <v>4</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="9"/>
-      <c r="M49" s="27" t="s">
+      <c r="M49" s="28" t="s">
         <v>22</v>
       </c>
       <c r="N49" s="1" t="s">
@@ -3044,8 +3044,8 @@
       </c>
     </row>
     <row r="50" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G50" s="37"/>
-      <c r="M50" s="27"/>
+      <c r="G50" s="49"/>
+      <c r="M50" s="28"/>
       <c r="N50" s="4">
         <v>1</v>
       </c>
@@ -3055,8 +3055,8 @@
       <c r="P50" s="6"/>
     </row>
     <row r="51" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G51" s="37"/>
-      <c r="H51" s="24" t="s">
+      <c r="G51" s="49"/>
+      <c r="H51" s="21" t="s">
         <v>23</v>
       </c>
       <c r="I51" s="13" t="s">
@@ -3068,7 +3068,7 @@
       <c r="K51" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M51" s="27"/>
+      <c r="M51" s="28"/>
       <c r="N51" s="7">
         <f>N50+1</f>
         <v>2</v>
@@ -3077,8 +3077,8 @@
       <c r="P51" s="9"/>
     </row>
     <row r="52" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G52" s="37"/>
-      <c r="H52" s="25"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="23"/>
       <c r="I52" s="11">
         <v>1</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>15</v>
       </c>
       <c r="K52" s="10"/>
-      <c r="M52" s="27"/>
+      <c r="M52" s="28"/>
       <c r="N52" s="7">
         <f t="shared" ref="N52:N53" si="4">N51+1</f>
         <v>3</v>
@@ -3095,8 +3095,8 @@
       <c r="P52" s="6"/>
     </row>
     <row r="53" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G53" s="37"/>
-      <c r="M53" s="27"/>
+      <c r="G53" s="49"/>
+      <c r="M53" s="28"/>
       <c r="N53" s="7">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -3105,11 +3105,11 @@
       <c r="P53" s="6"/>
     </row>
     <row r="54" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G54" s="37"/>
+      <c r="G54" s="49"/>
     </row>
     <row r="55" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G55" s="37"/>
-      <c r="H55" s="26" t="s">
+      <c r="G55" s="49"/>
+      <c r="H55" s="29" t="s">
         <v>24</v>
       </c>
       <c r="I55" s="14" t="s">
@@ -3121,7 +3121,7 @@
       <c r="K55" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M55" s="27" t="s">
+      <c r="M55" s="28" t="s">
         <v>27</v>
       </c>
       <c r="N55" s="14" t="s">
@@ -3135,8 +3135,8 @@
       </c>
     </row>
     <row r="56" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G56" s="37"/>
-      <c r="H56" s="26"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="29"/>
       <c r="I56" s="11">
         <v>1</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>15</v>
       </c>
       <c r="K56" s="20"/>
-      <c r="M56" s="27"/>
+      <c r="M56" s="28"/>
       <c r="N56" s="11">
         <v>1</v>
       </c>
@@ -3154,14 +3154,14 @@
       <c r="P56" s="10"/>
     </row>
     <row r="57" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G57" s="37"/>
-      <c r="H57" s="26"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="29"/>
       <c r="I57" s="7">
         <v>2</v>
       </c>
       <c r="J57" s="8"/>
       <c r="K57" s="9"/>
-      <c r="M57" s="27"/>
+      <c r="M57" s="28"/>
       <c r="N57" s="4">
         <f>N56+1</f>
         <v>2</v>
@@ -3170,17 +3170,16 @@
       <c r="P57" s="5"/>
     </row>
     <row r="58" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G58" s="38"/>
+      <c r="G58" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M11:M19"/>
-    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B12:E13"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="M49:M53"/>
+    <mergeCell ref="G1:G58"/>
     <mergeCell ref="M55:M57"/>
     <mergeCell ref="M40:M45"/>
     <mergeCell ref="H45:H49"/>
@@ -3191,12 +3190,13 @@
     <mergeCell ref="H32:Q32"/>
     <mergeCell ref="K34:N34"/>
     <mergeCell ref="N22:P24"/>
-    <mergeCell ref="B12:E13"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="M49:M53"/>
-    <mergeCell ref="G1:G58"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M11:M19"/>
+    <mergeCell ref="H17:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
